--- a/basededatos.xlsx
+++ b/basededatos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fery\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CFC684-5A91-49D5-829B-A79030BE875C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75276340-4411-4751-B5C9-0C1E8D10AB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EA4CA344-809A-4963-8197-B3A4388A2637}"/>
+    <workbookView xWindow="12705" yWindow="1155" windowWidth="15885" windowHeight="14820" xr2:uid="{EA4CA344-809A-4963-8197-B3A4388A2637}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
   <si>
     <t>nombre</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>idusuario</t>
+  </si>
+  <si>
+    <t>rol</t>
   </si>
   <si>
     <t>user</t>
@@ -945,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB91EB1-FC51-413A-BA4E-3673DA92BC21}">
   <dimension ref="E7:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,7 +970,7 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="5:13" x14ac:dyDescent="0.25">
@@ -975,23 +978,23 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="5:13" x14ac:dyDescent="0.25">
@@ -999,7 +1002,7 @@
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1007,7 +1010,7 @@
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="5:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1015,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>18</v>
@@ -1029,7 +1032,7 @@
         <v>19</v>
       </c>
       <c r="M16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="5:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1040,13 +1043,13 @@
         <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="5:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1054,19 +1057,19 @@
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.25">
@@ -1074,59 +1077,59 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.25">
@@ -1134,13 +1137,13 @@
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L22" s="1"/>
     </row>
@@ -1149,13 +1152,13 @@
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="5:13" x14ac:dyDescent="0.25">
@@ -1163,13 +1166,13 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1183,7 +1186,7 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>20</v>
@@ -1194,41 +1197,41 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E30" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="5:13" x14ac:dyDescent="0.25">
@@ -1236,13 +1239,13 @@
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="5:13" x14ac:dyDescent="0.25">
@@ -1250,7 +1253,7 @@
         <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>6</v>
@@ -1261,18 +1264,20 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
-      </c>
-      <c r="J33" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="J34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="5:10" x14ac:dyDescent="0.25">
       <c r="J35" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
